--- a/Официальные группы/Проект групп на 2021-2022 год.xlsx
+++ b/Официальные группы/Проект групп на 2021-2022 год.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9264" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9264" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="4 год А.В.Полоскин" sheetId="1" r:id="rId1"/>
     <sheet name="3 год В. М. ХАйтов" sheetId="2" r:id="rId2"/>
     <sheet name="2 год В. С. Котельникова" sheetId="4" r:id="rId3"/>
     <sheet name="3 год Д.А.Аристов" sheetId="3" r:id="rId4"/>
+    <sheet name="2 год Д.А.Аристов" sheetId="5" r:id="rId5"/>
+    <sheet name="2 год А. В. Полоскин" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="460">
   <si>
     <t>020012-082</t>
   </si>
@@ -1394,6 +1396,9 @@
   </si>
   <si>
     <t>Комендантский пр. 13-1-300</t>
+  </si>
+  <si>
+    <t>3 год Д.А.Аристов</t>
   </si>
 </sst>
 </file>
@@ -1401,14 +1406,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="dd\.mm\.yyyy"/>
     <numFmt numFmtId="179" formatCode="dd\.mm\.yyyy\ h:mm"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1423,8 +1428,135 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1439,135 +1571,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1576,49 +1591,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1636,7 +1609,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1648,7 +1633,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1660,7 +1657,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1672,7 +1687,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1684,13 +1741,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1702,61 +1777,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1787,11 +1808,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1812,21 +1855,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1837,6 +1865,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1858,245 +1895,248 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="20% — Акцент3" xfId="1" builtinId="38"/>
-    <cellStyle name="Денежный [0]" xfId="2" builtinId="7"/>
-    <cellStyle name="40% — Акцент5" xfId="3" builtinId="47"/>
-    <cellStyle name="Хороший" xfId="4" builtinId="26"/>
-    <cellStyle name="Запятая [0]" xfId="5" builtinId="6"/>
-    <cellStyle name="Денежный" xfId="6" builtinId="4"/>
-    <cellStyle name="Запятая" xfId="7" builtinId="3"/>
-    <cellStyle name="40% — Акцент6" xfId="8" builtinId="51"/>
-    <cellStyle name="Процент" xfId="9" builtinId="5"/>
-    <cellStyle name="20% — Акцент2" xfId="10" builtinId="34"/>
-    <cellStyle name="Итого" xfId="11" builtinId="25"/>
-    <cellStyle name="Вывод" xfId="12" builtinId="21"/>
-    <cellStyle name="Гиперссылка" xfId="13" builtinId="8"/>
-    <cellStyle name="40% — Акцент4" xfId="14" builtinId="43"/>
-    <cellStyle name="Открывавшаяся гиперссылка" xfId="15" builtinId="9"/>
-    <cellStyle name="Примечание" xfId="16" builtinId="10"/>
-    <cellStyle name="Предупреждающий текст" xfId="17" builtinId="11"/>
-    <cellStyle name="Заголовок" xfId="18" builtinId="15"/>
-    <cellStyle name="Пояснительный текст" xfId="19" builtinId="53"/>
-    <cellStyle name="Заголовок 1" xfId="20" builtinId="16"/>
-    <cellStyle name="Заголовок 2" xfId="21" builtinId="17"/>
-    <cellStyle name="Заголовок 3" xfId="22" builtinId="18"/>
-    <cellStyle name="Заголовок 4" xfId="23" builtinId="19"/>
-    <cellStyle name="Ввод" xfId="24" builtinId="20"/>
-    <cellStyle name="Проверить ячейку" xfId="25" builtinId="23"/>
-    <cellStyle name="Вычисление" xfId="26" builtinId="22"/>
-    <cellStyle name="Связанная ячейка" xfId="27" builtinId="24"/>
-    <cellStyle name="Плохой" xfId="28" builtinId="27"/>
-    <cellStyle name="Акцент5" xfId="29" builtinId="45"/>
-    <cellStyle name="Нейтральный" xfId="30" builtinId="28"/>
-    <cellStyle name="Акцент1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% — Акцент1" xfId="32" builtinId="30"/>
-    <cellStyle name="40% — Акцент1" xfId="33" builtinId="31"/>
-    <cellStyle name="20% — Акцент5" xfId="34" builtinId="46"/>
-    <cellStyle name="60% — Акцент1" xfId="35" builtinId="32"/>
-    <cellStyle name="Акцент2" xfId="36" builtinId="33"/>
-    <cellStyle name="40% — Акцент2" xfId="37" builtinId="35"/>
-    <cellStyle name="20% — Акцент6" xfId="38" builtinId="50"/>
-    <cellStyle name="60% — Акцент2" xfId="39" builtinId="36"/>
-    <cellStyle name="Акцент3" xfId="40" builtinId="37"/>
-    <cellStyle name="40% — Акцент3" xfId="41" builtinId="39"/>
-    <cellStyle name="60% — Акцент3" xfId="42" builtinId="40"/>
-    <cellStyle name="Акцент4" xfId="43" builtinId="41"/>
-    <cellStyle name="20% — Акцент4" xfId="44" builtinId="42"/>
-    <cellStyle name="60% — Акцент4" xfId="45" builtinId="44"/>
-    <cellStyle name="60% — Акцент5" xfId="46" builtinId="48"/>
-    <cellStyle name="Акцент6" xfId="47" builtinId="49"/>
-    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
+  <cellStyles count="50">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="Обычный_Jashera 2018" xfId="49"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2368,7 +2408,7 @@
   <dimension ref="A2:AN24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T2" sqref="G2:I11 T2:T11"/>
+      <selection activeCell="A20" sqref="$A20:$XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2387,7 +2427,7 @@
   </cols>
   <sheetData>
     <row r="2" s="1" customFormat="1" spans="1:39">
-      <c r="A2" s="2">
+      <c r="A2" s="4">
         <v>44151.387962963</v>
       </c>
       <c r="B2" s="1">
@@ -2396,10 +2436,10 @@
       <c r="C2" s="1">
         <v>404</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="5">
         <v>44084</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="5">
         <v>44076</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -2444,7 +2484,7 @@
       <c r="S2" s="1">
         <v>16</v>
       </c>
-      <c r="T2" s="3">
+      <c r="T2" s="5">
         <v>38174</v>
       </c>
       <c r="U2" s="1">
@@ -2456,7 +2496,7 @@
       <c r="W2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2" s="4">
         <v>44118.5819212963</v>
       </c>
       <c r="Y2" s="1" t="s">
@@ -2474,7 +2514,7 @@
       <c r="AC2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AD2" s="3">
+      <c r="AD2" s="5">
         <v>44118</v>
       </c>
       <c r="AE2" s="1" t="s">
@@ -2495,7 +2535,6 @@
       <c r="AJ2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AK2" s="1"/>
       <c r="AL2" s="1" t="s">
         <v>18</v>
       </c>
@@ -2504,7 +2543,7 @@
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:38">
-      <c r="A3" s="2">
+      <c r="A3" s="4">
         <v>44151.387962963</v>
       </c>
       <c r="B3" s="1">
@@ -2513,10 +2552,10 @@
       <c r="C3" s="1">
         <v>404</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="5">
         <v>44084</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="5">
         <v>44076</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -2561,7 +2600,7 @@
       <c r="S3" s="1">
         <v>14</v>
       </c>
-      <c r="T3" s="3">
+      <c r="T3" s="5">
         <v>38321</v>
       </c>
       <c r="U3" s="1">
@@ -2573,7 +2612,7 @@
       <c r="W3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="X3" s="2">
+      <c r="X3" s="4">
         <v>44118.5851736111</v>
       </c>
       <c r="Y3" s="1" t="s">
@@ -2591,7 +2630,7 @@
       <c r="AC3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AD3" s="3">
+      <c r="AD3" s="5">
         <v>44118</v>
       </c>
       <c r="AE3" s="1" t="s">
@@ -2609,7 +2648,6 @@
       <c r="AI3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AJ3" s="1"/>
       <c r="AK3" s="1" t="s">
         <v>18</v>
       </c>
@@ -2618,7 +2656,7 @@
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:39">
-      <c r="A4" s="2">
+      <c r="A4" s="4">
         <v>44151.387962963</v>
       </c>
       <c r="B4" s="1">
@@ -2627,10 +2665,10 @@
       <c r="C4" s="1">
         <v>404</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="5">
         <v>44084</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="5">
         <v>44076</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -2675,7 +2713,7 @@
       <c r="S4" s="1">
         <v>14</v>
       </c>
-      <c r="T4" s="3">
+      <c r="T4" s="5">
         <v>38137</v>
       </c>
       <c r="U4" s="1">
@@ -2687,7 +2725,7 @@
       <c r="W4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="X4" s="2">
+      <c r="X4" s="4">
         <v>44118.58625</v>
       </c>
       <c r="Y4" s="1" t="s">
@@ -2705,7 +2743,7 @@
       <c r="AC4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AD4" s="3">
+      <c r="AD4" s="5">
         <v>44118</v>
       </c>
       <c r="AE4" s="1" t="s">
@@ -2726,7 +2764,6 @@
       <c r="AJ4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AK4" s="1"/>
       <c r="AL4" s="1" t="s">
         <v>18</v>
       </c>
@@ -2735,7 +2772,7 @@
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:38">
-      <c r="A5" s="2">
+      <c r="A5" s="4">
         <v>44151.387962963</v>
       </c>
       <c r="B5" s="1">
@@ -2744,10 +2781,10 @@
       <c r="C5" s="1">
         <v>404</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="5">
         <v>44084</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="5">
         <v>44076</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -2792,7 +2829,7 @@
       <c r="S5" s="1">
         <v>13</v>
       </c>
-      <c r="T5" s="3">
+      <c r="T5" s="5">
         <v>38745</v>
       </c>
       <c r="U5" s="1">
@@ -2804,7 +2841,7 @@
       <c r="W5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="X5" s="2">
+      <c r="X5" s="4">
         <v>44118.5869212963</v>
       </c>
       <c r="Y5" s="1" t="s">
@@ -2822,7 +2859,7 @@
       <c r="AC5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AD5" s="3">
+      <c r="AD5" s="5">
         <v>44118</v>
       </c>
       <c r="AE5" s="1" t="s">
@@ -2840,7 +2877,6 @@
       <c r="AI5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AJ5" s="1"/>
       <c r="AK5" s="1" t="s">
         <v>18</v>
       </c>
@@ -2849,7 +2885,7 @@
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:40">
-      <c r="A6" s="2">
+      <c r="A6" s="4">
         <v>44151.387962963</v>
       </c>
       <c r="B6" s="1">
@@ -2858,10 +2894,10 @@
       <c r="C6" s="1">
         <v>404</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="5">
         <v>44084</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="5">
         <v>44076</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -2906,7 +2942,7 @@
       <c r="S6" s="1">
         <v>15</v>
       </c>
-      <c r="T6" s="3">
+      <c r="T6" s="5">
         <v>38051</v>
       </c>
       <c r="U6" s="1">
@@ -2918,7 +2954,7 @@
       <c r="W6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="X6" s="2">
+      <c r="X6" s="4">
         <v>44118.587650463</v>
       </c>
       <c r="Y6" s="1" t="s">
@@ -2936,7 +2972,7 @@
       <c r="AC6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AD6" s="3">
+      <c r="AD6" s="5">
         <v>44118</v>
       </c>
       <c r="AE6" s="1" t="s">
@@ -2960,7 +2996,6 @@
       <c r="AK6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AL6" s="1"/>
       <c r="AM6" s="1" t="s">
         <v>18</v>
       </c>
@@ -2969,7 +3004,7 @@
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:38">
-      <c r="A7" s="2">
+      <c r="A7" s="4">
         <v>44151.3879282407</v>
       </c>
       <c r="B7" s="1">
@@ -2978,10 +3013,10 @@
       <c r="C7" s="1">
         <v>310</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="5">
         <v>44084</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="5">
         <v>44076</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -3026,7 +3061,7 @@
       <c r="S7" s="1">
         <v>13</v>
       </c>
-      <c r="T7" s="3">
+      <c r="T7" s="5">
         <v>39164</v>
       </c>
       <c r="U7" s="1">
@@ -3038,7 +3073,7 @@
       <c r="W7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="X7" s="2">
+      <c r="X7" s="4">
         <v>44116.8126388889</v>
       </c>
       <c r="Y7" s="1" t="s">
@@ -3056,7 +3091,7 @@
       <c r="AC7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AD7" s="3">
+      <c r="AD7" s="5">
         <v>44116</v>
       </c>
       <c r="AE7" s="1" t="s">
@@ -3074,7 +3109,6 @@
       <c r="AI7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AJ7" s="1"/>
       <c r="AK7" s="1" t="s">
         <v>18</v>
       </c>
@@ -3083,7 +3117,7 @@
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:39">
-      <c r="A8" s="2">
+      <c r="A8" s="4">
         <v>44151.3879282407</v>
       </c>
       <c r="B8" s="1">
@@ -3092,10 +3126,10 @@
       <c r="C8" s="1">
         <v>310</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="5">
         <v>44084</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="5">
         <v>44076</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -3140,7 +3174,7 @@
       <c r="S8" s="1">
         <v>13</v>
       </c>
-      <c r="T8" s="3">
+      <c r="T8" s="5">
         <v>39171</v>
       </c>
       <c r="U8" s="1">
@@ -3152,7 +3186,7 @@
       <c r="W8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="X8" s="2">
+      <c r="X8" s="4">
         <v>44116.8139699074</v>
       </c>
       <c r="Y8" s="1" t="s">
@@ -3170,7 +3204,7 @@
       <c r="AC8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AD8" s="5">
         <v>44116</v>
       </c>
       <c r="AE8" s="1" t="s">
@@ -3191,7 +3225,6 @@
       <c r="AJ8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AK8" s="1"/>
       <c r="AL8" s="1" t="s">
         <v>18</v>
       </c>
@@ -3200,7 +3233,7 @@
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:38">
-      <c r="A9" s="2">
+      <c r="A9" s="4">
         <v>44151.3879282407</v>
       </c>
       <c r="B9" s="1">
@@ -3209,10 +3242,10 @@
       <c r="C9" s="1">
         <v>310</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="5">
         <v>44084</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="5">
         <v>44076</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -3257,7 +3290,7 @@
       <c r="S9" s="1">
         <v>13</v>
       </c>
-      <c r="T9" s="3">
+      <c r="T9" s="5">
         <v>38989</v>
       </c>
       <c r="U9" s="1">
@@ -3269,7 +3302,7 @@
       <c r="W9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="X9" s="2">
+      <c r="X9" s="4">
         <v>44116.8144675926</v>
       </c>
       <c r="Y9" s="1" t="s">
@@ -3287,7 +3320,7 @@
       <c r="AC9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AD9" s="5">
         <v>44116</v>
       </c>
       <c r="AE9" s="1" t="s">
@@ -3305,7 +3338,6 @@
       <c r="AI9" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AJ9" s="1"/>
       <c r="AK9" s="1" t="s">
         <v>18</v>
       </c>
@@ -3314,7 +3346,7 @@
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:38">
-      <c r="A10" s="2">
+      <c r="A10" s="4">
         <v>44151.3879282407</v>
       </c>
       <c r="B10" s="1">
@@ -3323,10 +3355,10 @@
       <c r="C10" s="1">
         <v>310</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="5">
         <v>44084</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="5">
         <v>44076</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -3371,7 +3403,7 @@
       <c r="S10" s="1">
         <v>15</v>
       </c>
-      <c r="T10" s="3">
+      <c r="T10" s="5">
         <v>38367</v>
       </c>
       <c r="U10" s="1">
@@ -3383,7 +3415,7 @@
       <c r="W10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="X10" s="2">
+      <c r="X10" s="4">
         <v>44116.8153356481</v>
       </c>
       <c r="Y10" s="1" t="s">
@@ -3401,7 +3433,7 @@
       <c r="AC10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AD10" s="5">
         <v>44116</v>
       </c>
       <c r="AE10" s="1" t="s">
@@ -3419,7 +3451,6 @@
       <c r="AI10" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AJ10" s="1"/>
       <c r="AK10" s="1" t="s">
         <v>18</v>
       </c>
@@ -3428,7 +3459,7 @@
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:39">
-      <c r="A11" s="2">
+      <c r="A11" s="4">
         <v>44151.3879282407</v>
       </c>
       <c r="B11" s="1">
@@ -3437,10 +3468,10 @@
       <c r="C11" s="1">
         <v>310</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="5">
         <v>44084</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="5">
         <v>44076</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -3485,7 +3516,7 @@
       <c r="S11" s="1">
         <v>15</v>
       </c>
-      <c r="T11" s="3">
+      <c r="T11" s="5">
         <v>38302</v>
       </c>
       <c r="U11" s="1">
@@ -3497,7 +3528,7 @@
       <c r="W11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="X11" s="2">
+      <c r="X11" s="4">
         <v>44116.820162037</v>
       </c>
       <c r="Y11" s="1" t="s">
@@ -3515,7 +3546,7 @@
       <c r="AC11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AD11" s="3">
+      <c r="AD11" s="5">
         <v>44116</v>
       </c>
       <c r="AE11" s="1" t="s">
@@ -3536,7 +3567,6 @@
       <c r="AJ11" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AK11" s="1"/>
       <c r="AL11" s="1" t="s">
         <v>18</v>
       </c>
@@ -3544,582 +3574,577 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:38">
-      <c r="A20" s="2">
+    <row r="20" s="2" customFormat="1" spans="1:38">
+      <c r="A20" s="6">
         <v>44151.3879282407</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="2">
         <v>1</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="2">
         <v>310</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="7">
         <v>44084</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="7">
         <v>44076</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="2">
         <v>504</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="2">
         <v>89117508487</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20" s="2">
         <v>1</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="N20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q20" s="1">
+      <c r="O20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q20" s="2">
         <v>0</v>
       </c>
-      <c r="R20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S20" s="1">
+      <c r="R20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S20" s="2">
         <v>14</v>
       </c>
-      <c r="T20" s="3">
+      <c r="T20" s="7">
         <v>38364</v>
       </c>
-      <c r="U20" s="1">
+      <c r="U20" s="2">
         <v>9</v>
       </c>
-      <c r="V20" s="1" t="s">
+      <c r="V20" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="W20" s="1" t="s">
+      <c r="W20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="X20" s="2">
+      <c r="X20" s="6">
         <v>44116.8118287037</v>
       </c>
-      <c r="Y20" s="1" t="s">
+      <c r="Y20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Z20" s="1" t="s">
+      <c r="Z20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AA20" s="1" t="s">
+      <c r="AA20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AB20" s="1">
+      <c r="AB20" s="2">
         <v>20012</v>
       </c>
-      <c r="AC20" s="1" t="s">
+      <c r="AC20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AD20" s="7">
         <v>44116</v>
       </c>
-      <c r="AE20" s="1" t="s">
+      <c r="AE20" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AF20" s="1" t="s">
+      <c r="AF20" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AG20" s="1" t="s">
+      <c r="AG20" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="AH20" s="1">
+      <c r="AH20" s="2">
         <v>89117508487</v>
       </c>
-      <c r="AI20" s="1" t="s">
+      <c r="AI20" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="AJ20" s="1"/>
-      <c r="AK20" s="1" t="s">
+      <c r="AK20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AL20" s="1" t="s">
+      <c r="AL20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:39">
-      <c r="A21" s="2">
+    <row r="21" s="2" customFormat="1" spans="1:39">
+      <c r="A21" s="6">
         <v>44151.3879282407</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <v>3</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="2">
         <v>310</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="7">
         <v>44084</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="7">
         <v>44076</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="2">
         <v>568</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="K21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21" s="2">
         <v>9533722040</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21" s="2">
         <v>2</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="N21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q21" s="1">
+      <c r="O21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q21" s="2">
         <v>0</v>
       </c>
-      <c r="R21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S21" s="1">
+      <c r="R21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S21" s="2">
         <v>14</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="7">
         <v>38896</v>
       </c>
-      <c r="U21" s="1">
+      <c r="U21" s="2">
         <v>8</v>
       </c>
-      <c r="V21" s="1" t="s">
+      <c r="V21" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="W21" s="1" t="s">
+      <c r="W21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="X21" s="2">
+      <c r="X21" s="6">
         <v>44116.8134027778</v>
       </c>
-      <c r="Y21" s="1" t="s">
+      <c r="Y21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Z21" s="1" t="s">
+      <c r="Z21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AA21" s="1" t="s">
+      <c r="AA21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AB21" s="1">
+      <c r="AB21" s="2">
         <v>20012</v>
       </c>
-      <c r="AC21" s="1" t="s">
+      <c r="AC21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AD21" s="7">
         <v>44116</v>
       </c>
-      <c r="AE21" s="1" t="s">
+      <c r="AE21" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="AF21" s="1" t="s">
+      <c r="AF21" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AG21" s="1" t="s">
+      <c r="AG21" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AH21" s="1">
+      <c r="AH21" s="2">
         <v>9533722040</v>
       </c>
-      <c r="AI21" s="1" t="s">
+      <c r="AI21" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AJ21" s="1" t="s">
+      <c r="AJ21" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="AK21" s="1"/>
-      <c r="AL21" s="1" t="s">
+      <c r="AL21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AM21" s="1" t="s">
+      <c r="AM21" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="1:38">
-      <c r="A22" s="2">
+    <row r="22" s="2" customFormat="1" spans="1:38">
+      <c r="A22" s="6">
         <v>44151.3879282407</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <v>7</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="2">
         <v>310</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="7">
         <v>44084</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="7">
         <v>44076</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="2">
         <v>283</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="K22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22" s="2">
         <v>89817357935</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" s="2">
         <v>1</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="N22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q22" s="1">
+      <c r="O22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q22" s="2">
         <v>0</v>
       </c>
-      <c r="R22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S22" s="1">
+      <c r="R22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S22" s="2">
         <v>13</v>
       </c>
-      <c r="T22" s="3">
+      <c r="T22" s="7">
         <v>39155</v>
       </c>
-      <c r="U22" s="1">
+      <c r="U22" s="2">
         <v>7</v>
       </c>
-      <c r="V22" s="1" t="s">
+      <c r="V22" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="W22" s="1" t="s">
+      <c r="W22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="X22" s="2">
+      <c r="X22" s="6">
         <v>44116.8178819444</v>
       </c>
-      <c r="Y22" s="1" t="s">
+      <c r="Y22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Z22" s="1" t="s">
+      <c r="Z22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AA22" s="1" t="s">
+      <c r="AA22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AB22" s="1">
+      <c r="AB22" s="2">
         <v>20012</v>
       </c>
-      <c r="AC22" s="1" t="s">
+      <c r="AC22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AD22" s="7">
         <v>44116</v>
       </c>
-      <c r="AE22" s="1" t="s">
+      <c r="AE22" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AF22" s="1" t="s">
+      <c r="AF22" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AG22" s="1" t="s">
+      <c r="AG22" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AH22" s="1">
+      <c r="AH22" s="2">
         <v>89817357935</v>
       </c>
-      <c r="AI22" s="1" t="s">
+      <c r="AI22" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AJ22" s="1"/>
-      <c r="AK22" s="1" t="s">
+      <c r="AK22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AL22" s="1" t="s">
+      <c r="AL22" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" spans="1:39">
-      <c r="A23" s="2">
+    <row r="23" s="2" customFormat="1" spans="1:39">
+      <c r="A23" s="6">
         <v>44151.3879282407</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="2">
         <v>9</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="2">
         <v>310</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="7">
         <v>44084</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="7">
         <v>44076</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="2">
         <v>667</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="K23" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23" s="2">
         <v>9643817471</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23" s="2">
         <v>2</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="N23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q23" s="1">
+      <c r="O23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q23" s="2">
         <v>0</v>
       </c>
-      <c r="R23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S23" s="1">
+      <c r="R23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S23" s="2">
         <v>14</v>
       </c>
-      <c r="T23" s="3">
+      <c r="T23" s="7">
         <v>38773</v>
       </c>
-      <c r="U23" s="1">
+      <c r="U23" s="2">
         <v>8</v>
       </c>
-      <c r="V23" s="1" t="s">
+      <c r="V23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="W23" s="1" t="s">
+      <c r="W23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="X23" s="2">
+      <c r="X23" s="6">
         <v>44116.8341435185</v>
       </c>
-      <c r="Y23" s="1" t="s">
+      <c r="Y23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Z23" s="1" t="s">
+      <c r="Z23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AA23" s="1" t="s">
+      <c r="AA23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AB23" s="1">
+      <c r="AB23" s="2">
         <v>20012</v>
       </c>
-      <c r="AC23" s="1" t="s">
+      <c r="AC23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AD23" s="7">
         <v>44116</v>
       </c>
-      <c r="AE23" s="1" t="s">
+      <c r="AE23" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="AF23" s="1" t="s">
+      <c r="AF23" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="AG23" s="1" t="s">
+      <c r="AG23" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="AH23" s="1">
+      <c r="AH23" s="2">
         <v>9052592686</v>
       </c>
-      <c r="AI23" s="1" t="s">
+      <c r="AI23" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AJ23" s="1" t="s">
+      <c r="AJ23" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AK23" s="1"/>
-      <c r="AL23" s="1" t="s">
+      <c r="AL23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AM23" s="1" t="s">
+      <c r="AM23" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:39">
-      <c r="A24" s="2">
+    <row r="24" s="2" customFormat="1" spans="1:39">
+      <c r="A24" s="6">
         <v>44151.3879282407</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="2">
         <v>10</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="2">
         <v>310</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="7">
         <v>44084</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="7">
         <v>44076</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="2">
         <v>345</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="K24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L24" s="2">
         <v>9500061083</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M24" s="2">
         <v>2</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="N24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q24" s="1">
+      <c r="O24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q24" s="2">
         <v>0</v>
       </c>
-      <c r="R24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S24" s="1">
+      <c r="R24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S24" s="2">
         <v>15</v>
       </c>
-      <c r="T24" s="3">
+      <c r="T24" s="7">
         <v>38498</v>
       </c>
-      <c r="U24" s="1">
+      <c r="U24" s="2">
         <v>9</v>
       </c>
-      <c r="V24" s="1" t="s">
+      <c r="V24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="W24" s="1" t="s">
+      <c r="W24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="X24" s="2">
+      <c r="X24" s="6">
         <v>44116.8351388889</v>
       </c>
-      <c r="Y24" s="1" t="s">
+      <c r="Y24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Z24" s="1" t="s">
+      <c r="Z24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AA24" s="1" t="s">
+      <c r="AA24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AB24" s="1">
+      <c r="AB24" s="2">
         <v>20012</v>
       </c>
-      <c r="AC24" s="1" t="s">
+      <c r="AC24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AD24" s="7">
         <v>44116</v>
       </c>
-      <c r="AE24" s="1" t="s">
+      <c r="AE24" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="AF24" s="1" t="s">
+      <c r="AF24" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AG24" s="1" t="s">
+      <c r="AG24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AH24" s="1">
+      <c r="AH24" s="2">
         <v>9523788459</v>
       </c>
-      <c r="AI24" s="1" t="s">
+      <c r="AI24" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AJ24" s="1" t="s">
+      <c r="AJ24" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="AK24" s="1"/>
-      <c r="AL24" s="1" t="s">
+      <c r="AL24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AM24" s="1" t="s">
+      <c r="AM24" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4134,8 +4159,8 @@
   <sheetPr/>
   <dimension ref="A1:AN28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -4144,15 +4169,20 @@
     <col min="4" max="5" width="10.8888888888889"/>
     <col min="7" max="7" width="14.6666666666667" customWidth="1"/>
     <col min="9" max="9" width="15.6666666666667" customWidth="1"/>
-    <col min="12" max="12" width="12.8888888888889"/>
-    <col min="20" max="20" width="10.8888888888889"/>
-    <col min="24" max="24" width="16.5555555555556"/>
-    <col min="30" max="30" width="10.8888888888889"/>
+    <col min="10" max="11" width="8.88888888888889" customWidth="1"/>
+    <col min="12" max="12" width="12.8888888888889" customWidth="1"/>
+    <col min="13" max="19" width="8.88888888888889" customWidth="1"/>
+    <col min="20" max="20" width="10.8888888888889" customWidth="1"/>
+    <col min="21" max="23" width="8.88888888888889" customWidth="1"/>
+    <col min="24" max="24" width="16.5555555555556" customWidth="1"/>
+    <col min="25" max="29" width="8.88888888888889" customWidth="1"/>
+    <col min="30" max="30" width="10.8888888888889" customWidth="1"/>
+    <col min="31" max="33" width="8.88888888888889" customWidth="1"/>
     <col min="34" max="34" width="12.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:39">
-      <c r="A1" s="2">
+      <c r="A1" s="4">
         <v>44151.3838310185</v>
       </c>
       <c r="B1" s="1">
@@ -4161,10 +4191,10 @@
       <c r="C1" s="1">
         <v>312</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="5">
         <v>44076</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="5">
         <v>44077</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -4209,7 +4239,7 @@
       <c r="S1" s="1">
         <v>14</v>
       </c>
-      <c r="T1" s="3">
+      <c r="T1" s="5">
         <v>38518</v>
       </c>
       <c r="U1" s="1">
@@ -4221,7 +4251,7 @@
       <c r="W1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="X1" s="2">
+      <c r="X1" s="4">
         <v>44117.5766666667</v>
       </c>
       <c r="Y1" s="1" t="s">
@@ -4239,7 +4269,7 @@
       <c r="AC1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AD1" s="3">
+      <c r="AD1" s="5">
         <v>44117</v>
       </c>
       <c r="AE1" s="1" t="s">
@@ -4251,8 +4281,8 @@
       <c r="AG1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AH1" s="1" t="s">
-        <v>4</v>
+      <c r="AH1" s="9">
+        <v>9219451925</v>
       </c>
       <c r="AI1" s="1" t="s">
         <v>137</v>
@@ -4260,7 +4290,6 @@
       <c r="AJ1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AK1" s="1"/>
       <c r="AL1" s="1" t="s">
         <v>18</v>
       </c>
@@ -4269,7 +4298,7 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:38">
-      <c r="A2" s="2">
+      <c r="A2" s="4">
         <v>44151.3838310185</v>
       </c>
       <c r="B2" s="1">
@@ -4278,10 +4307,10 @@
       <c r="C2" s="1">
         <v>312</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="5">
         <v>44076</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="5">
         <v>44077</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -4326,7 +4355,7 @@
       <c r="S2" s="1">
         <v>14</v>
       </c>
-      <c r="T2" s="3">
+      <c r="T2" s="5">
         <v>38917</v>
       </c>
       <c r="U2" s="1">
@@ -4338,7 +4367,7 @@
       <c r="W2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2" s="4">
         <v>44117.5771875</v>
       </c>
       <c r="Y2" s="1" t="s">
@@ -4356,7 +4385,7 @@
       <c r="AC2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AD2" s="3">
+      <c r="AD2" s="5">
         <v>44117</v>
       </c>
       <c r="AE2" s="1" t="s">
@@ -4368,13 +4397,12 @@
       <c r="AG2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AH2" s="1" t="s">
-        <v>4</v>
+      <c r="AH2" s="1">
+        <v>9533722040</v>
       </c>
       <c r="AI2" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AJ2" s="1"/>
       <c r="AK2" s="1" t="s">
         <v>18</v>
       </c>
@@ -4383,7 +4411,7 @@
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:38">
-      <c r="A3" s="2">
+      <c r="A3" s="4">
         <v>44151.3838310185</v>
       </c>
       <c r="B3" s="1">
@@ -4392,10 +4420,10 @@
       <c r="C3" s="1">
         <v>312</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="5">
         <v>44076</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="5">
         <v>44077</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -4440,7 +4468,7 @@
       <c r="S3" s="1">
         <v>15</v>
       </c>
-      <c r="T3" s="3">
+      <c r="T3" s="5">
         <v>38696</v>
       </c>
       <c r="U3" s="1">
@@ -4452,7 +4480,7 @@
       <c r="W3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="X3" s="2">
+      <c r="X3" s="4">
         <v>44117.5776736111</v>
       </c>
       <c r="Y3" s="1" t="s">
@@ -4470,7 +4498,7 @@
       <c r="AC3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AD3" s="3">
+      <c r="AD3" s="5">
         <v>44117</v>
       </c>
       <c r="AE3" s="1" t="s">
@@ -4488,7 +4516,6 @@
       <c r="AI3" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AJ3" s="1"/>
       <c r="AK3" s="1" t="s">
         <v>18</v>
       </c>
@@ -4497,7 +4524,7 @@
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:38">
-      <c r="A4" s="2">
+      <c r="A4" s="4">
         <v>44151.3838310185</v>
       </c>
       <c r="B4" s="1">
@@ -4506,10 +4533,10 @@
       <c r="C4" s="1">
         <v>312</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="5">
         <v>44076</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="5">
         <v>44077</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -4554,7 +4581,7 @@
       <c r="S4" s="1">
         <v>14</v>
       </c>
-      <c r="T4" s="3">
+      <c r="T4" s="5">
         <v>38933</v>
       </c>
       <c r="U4" s="1">
@@ -4566,7 +4593,7 @@
       <c r="W4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="X4" s="2">
+      <c r="X4" s="4">
         <v>44117.578125</v>
       </c>
       <c r="Y4" s="1" t="s">
@@ -4584,7 +4611,7 @@
       <c r="AC4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AD4" s="3">
+      <c r="AD4" s="5">
         <v>44117</v>
       </c>
       <c r="AE4" s="1" t="s">
@@ -4602,7 +4629,6 @@
       <c r="AI4" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AJ4" s="1"/>
       <c r="AK4" s="1" t="s">
         <v>18</v>
       </c>
@@ -4611,7 +4637,7 @@
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:39">
-      <c r="A5" s="2">
+      <c r="A5" s="4">
         <v>44151.3838310185</v>
       </c>
       <c r="B5" s="1">
@@ -4620,10 +4646,10 @@
       <c r="C5" s="1">
         <v>312</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="5">
         <v>44076</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="5">
         <v>44077</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -4668,7 +4694,7 @@
       <c r="S5" s="1">
         <v>14</v>
       </c>
-      <c r="T5" s="3">
+      <c r="T5" s="5">
         <v>38982</v>
       </c>
       <c r="U5" s="1">
@@ -4680,7 +4706,7 @@
       <c r="W5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="X5" s="2">
+      <c r="X5" s="4">
         <v>44117.578599537</v>
       </c>
       <c r="Y5" s="1" t="s">
@@ -4698,7 +4724,7 @@
       <c r="AC5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AD5" s="3">
+      <c r="AD5" s="5">
         <v>44117</v>
       </c>
       <c r="AE5" s="1" t="s">
@@ -4719,7 +4745,6 @@
       <c r="AJ5" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="AK5" s="1"/>
       <c r="AL5" s="1" t="s">
         <v>18</v>
       </c>
@@ -4728,7 +4753,7 @@
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:38">
-      <c r="A6" s="2">
+      <c r="A6" s="4">
         <v>44151.3838310185</v>
       </c>
       <c r="B6" s="1">
@@ -4737,10 +4762,10 @@
       <c r="C6" s="1">
         <v>312</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="5">
         <v>44076</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="5">
         <v>43711</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -4785,7 +4810,7 @@
       <c r="S6" s="1">
         <v>13</v>
       </c>
-      <c r="T6" s="3">
+      <c r="T6" s="5">
         <v>39063</v>
       </c>
       <c r="U6" s="1">
@@ -4797,7 +4822,7 @@
       <c r="W6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="X6" s="2">
+      <c r="X6" s="4">
         <v>44117.5797916667</v>
       </c>
       <c r="Y6" s="1" t="s">
@@ -4815,7 +4840,7 @@
       <c r="AC6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AD6" s="3">
+      <c r="AD6" s="5">
         <v>44117</v>
       </c>
       <c r="AE6" s="1" t="s">
@@ -4827,13 +4852,12 @@
       <c r="AG6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AH6" s="1" t="s">
-        <v>4</v>
+      <c r="AH6" s="10">
+        <v>9119422619</v>
       </c>
       <c r="AI6" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="AJ6" s="1"/>
       <c r="AK6" s="1" t="s">
         <v>18</v>
       </c>
@@ -4842,7 +4866,7 @@
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:38">
-      <c r="A7" s="2">
+      <c r="A7" s="4">
         <v>44151.383599537</v>
       </c>
       <c r="B7" s="1">
@@ -4851,10 +4875,10 @@
       <c r="C7" s="1">
         <v>222</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="5">
         <v>44076</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="5">
         <v>44078</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -4899,7 +4923,7 @@
       <c r="S7" s="1">
         <v>12</v>
       </c>
-      <c r="T7" s="3">
+      <c r="T7" s="5">
         <v>39376</v>
       </c>
       <c r="U7" s="1">
@@ -4911,7 +4935,7 @@
       <c r="W7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="X7" s="2">
+      <c r="X7" s="4">
         <v>44117.5529976852</v>
       </c>
       <c r="Y7" s="1" t="s">
@@ -4929,7 +4953,7 @@
       <c r="AC7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AD7" s="3">
+      <c r="AD7" s="5">
         <v>44117</v>
       </c>
       <c r="AE7" s="1" t="s">
@@ -4941,13 +4965,12 @@
       <c r="AG7" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="AH7" s="1" t="s">
-        <v>4</v>
+      <c r="AH7" s="1">
+        <v>9523025607</v>
       </c>
       <c r="AI7" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="AJ7" s="1"/>
       <c r="AK7" s="1" t="s">
         <v>18</v>
       </c>
@@ -4956,7 +4979,7 @@
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:38">
-      <c r="A8" s="2">
+      <c r="A8" s="4">
         <v>44151.383599537</v>
       </c>
       <c r="B8" s="1">
@@ -4965,10 +4988,10 @@
       <c r="C8" s="1">
         <v>222</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="5">
         <v>44076</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="5">
         <v>44077</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -5013,7 +5036,7 @@
       <c r="S8" s="1">
         <v>11</v>
       </c>
-      <c r="T8" s="3">
+      <c r="T8" s="5">
         <v>39406</v>
       </c>
       <c r="U8" s="1">
@@ -5025,7 +5048,7 @@
       <c r="W8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="X8" s="2">
+      <c r="X8" s="4">
         <v>44117.5702199074</v>
       </c>
       <c r="Y8" s="1" t="s">
@@ -5043,7 +5066,7 @@
       <c r="AC8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AD8" s="5">
         <v>44117</v>
       </c>
       <c r="AE8" s="1" t="s">
@@ -5055,13 +5078,12 @@
       <c r="AG8" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="AH8" s="1" t="s">
-        <v>4</v>
+      <c r="AH8" s="1">
+        <v>9213041520</v>
       </c>
       <c r="AI8" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="AJ8" s="1"/>
       <c r="AK8" s="1" t="s">
         <v>18</v>
       </c>
@@ -5070,7 +5092,7 @@
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:38">
-      <c r="A9" s="2">
+      <c r="A9" s="4">
         <v>44151.383599537</v>
       </c>
       <c r="B9" s="1">
@@ -5079,10 +5101,10 @@
       <c r="C9" s="1">
         <v>222</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="5">
         <v>44076</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="5">
         <v>44077</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -5127,7 +5149,7 @@
       <c r="S9" s="1">
         <v>11</v>
       </c>
-      <c r="T9" s="3">
+      <c r="T9" s="5">
         <v>39472</v>
       </c>
       <c r="U9" s="1">
@@ -5139,7 +5161,7 @@
       <c r="W9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="X9" s="2">
+      <c r="X9" s="4">
         <v>44117.571087963</v>
       </c>
       <c r="Y9" s="1" t="s">
@@ -5157,7 +5179,7 @@
       <c r="AC9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AD9" s="5">
         <v>44117</v>
       </c>
       <c r="AE9" s="1" t="s">
@@ -5169,13 +5191,12 @@
       <c r="AG9" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="AH9" s="1" t="s">
-        <v>4</v>
+      <c r="AH9" s="1">
+        <v>9213640331</v>
       </c>
       <c r="AI9" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="AJ9" s="1"/>
       <c r="AK9" s="1" t="s">
         <v>18</v>
       </c>
@@ -5183,8 +5204,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:38">
-      <c r="A10" s="2">
+    <row r="10" s="1" customFormat="1" ht="15.15" spans="1:38">
+      <c r="A10" s="4">
         <v>44151.383599537</v>
       </c>
       <c r="B10" s="1">
@@ -5193,10 +5214,10 @@
       <c r="C10" s="1">
         <v>222</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="5">
         <v>44076</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="5">
         <v>44077</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -5241,7 +5262,7 @@
       <c r="S10" s="1">
         <v>12</v>
       </c>
-      <c r="T10" s="3">
+      <c r="T10" s="5">
         <v>39089</v>
       </c>
       <c r="U10" s="1">
@@ -5253,7 +5274,7 @@
       <c r="W10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="X10" s="2">
+      <c r="X10" s="4">
         <v>44117.572662037</v>
       </c>
       <c r="Y10" s="1" t="s">
@@ -5271,7 +5292,7 @@
       <c r="AC10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AD10" s="5">
         <v>44117</v>
       </c>
       <c r="AE10" s="1" t="s">
@@ -5283,13 +5304,12 @@
       <c r="AG10" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AH10" s="1" t="s">
-        <v>4</v>
+      <c r="AH10" s="1">
+        <v>9217597722</v>
       </c>
       <c r="AI10" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="AJ10" s="1"/>
       <c r="AK10" s="1" t="s">
         <v>18</v>
       </c>
@@ -5297,8 +5317,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:38">
-      <c r="A11" s="2">
+    <row r="11" s="1" customFormat="1" ht="15.15" spans="1:38">
+      <c r="A11" s="4">
         <v>44151.383599537</v>
       </c>
       <c r="B11" s="1">
@@ -5307,10 +5327,10 @@
       <c r="C11" s="1">
         <v>222</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="5">
         <v>44076</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="5">
         <v>44077</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -5355,7 +5375,7 @@
       <c r="S11" s="1">
         <v>11</v>
       </c>
-      <c r="T11" s="3">
+      <c r="T11" s="5">
         <v>39581</v>
       </c>
       <c r="U11" s="1">
@@ -5367,7 +5387,7 @@
       <c r="W11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="X11" s="2">
+      <c r="X11" s="4">
         <v>44117.5734027778</v>
       </c>
       <c r="Y11" s="1" t="s">
@@ -5385,7 +5405,7 @@
       <c r="AC11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AD11" s="3">
+      <c r="AD11" s="5">
         <v>44117</v>
       </c>
       <c r="AE11" s="1" t="s">
@@ -5397,13 +5417,12 @@
       <c r="AG11" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="AH11" s="1" t="s">
-        <v>4</v>
+      <c r="AH11" s="11">
+        <v>9165382822</v>
       </c>
       <c r="AI11" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="AJ11" s="1"/>
       <c r="AK11" s="1" t="s">
         <v>18</v>
       </c>
@@ -5411,1377 +5430,1367 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:38">
-      <c r="A16" s="2">
+    <row r="15" s="3" customFormat="1"/>
+    <row r="16" s="2" customFormat="1" spans="1:38">
+      <c r="A16" s="6">
         <v>44151.3838310185</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <v>1</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
         <v>312</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="7">
         <v>44076</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="7">
         <v>44077</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="2">
         <v>642</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="K16" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="2">
         <v>9523025623</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="2">
         <v>1</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="N16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q16" s="1">
+      <c r="O16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q16" s="2">
         <v>0</v>
       </c>
-      <c r="R16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S16" s="1">
+      <c r="R16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S16" s="2">
         <v>13</v>
       </c>
-      <c r="T16" s="3">
+      <c r="T16" s="7">
         <v>38997</v>
       </c>
-      <c r="U16" s="1">
+      <c r="U16" s="2">
         <v>7</v>
       </c>
-      <c r="V16" s="1" t="s">
+      <c r="V16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="W16" s="1" t="s">
+      <c r="W16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="X16" s="2">
+      <c r="X16" s="6">
         <v>44117.575462963</v>
       </c>
-      <c r="Y16" s="1" t="s">
+      <c r="Y16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Z16" s="1" t="s">
+      <c r="Z16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AA16" s="1" t="s">
+      <c r="AA16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AB16" s="1">
+      <c r="AB16" s="2">
         <v>20012</v>
       </c>
-      <c r="AC16" s="1" t="s">
+      <c r="AC16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AD16" s="3">
+      <c r="AD16" s="7">
         <v>44117</v>
       </c>
-      <c r="AE16" s="1" t="s">
+      <c r="AE16" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="AF16" s="1" t="s">
+      <c r="AF16" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="AG16" s="1" t="s">
+      <c r="AG16" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="AH16" s="1">
+      <c r="AH16" s="2">
         <v>9523025607</v>
       </c>
-      <c r="AI16" s="1" t="s">
+      <c r="AI16" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="AJ16" s="1"/>
-      <c r="AK16" s="1" t="s">
+      <c r="AK16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AL16" s="1" t="s">
+      <c r="AL16" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:38">
-      <c r="A17" s="2">
+    <row r="17" s="2" customFormat="1" spans="1:38">
+      <c r="A17" s="6">
         <v>44151.3838310185</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>2</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
         <v>312</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="7">
         <v>44076</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="7">
         <v>44077</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="2">
         <v>642</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K17" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="2">
         <v>9213041520</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17" s="2">
         <v>1</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="N17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q17" s="1">
+      <c r="O17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q17" s="2">
         <v>0</v>
       </c>
-      <c r="R17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S17" s="1">
+      <c r="R17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S17" s="2">
         <v>14</v>
       </c>
-      <c r="T17" s="3">
+      <c r="T17" s="7">
         <v>38719</v>
       </c>
-      <c r="U17" s="1">
+      <c r="U17" s="2">
         <v>8</v>
       </c>
-      <c r="V17" s="1" t="s">
+      <c r="V17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="W17" s="1" t="s">
+      <c r="W17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="X17" s="2">
+      <c r="X17" s="6">
         <v>44117.5762384259</v>
       </c>
-      <c r="Y17" s="1" t="s">
+      <c r="Y17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Z17" s="1" t="s">
+      <c r="Z17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AA17" s="1" t="s">
+      <c r="AA17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AB17" s="1">
+      <c r="AB17" s="2">
         <v>20012</v>
       </c>
-      <c r="AC17" s="1" t="s">
+      <c r="AC17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AD17" s="7">
         <v>44117</v>
       </c>
-      <c r="AE17" s="1" t="s">
+      <c r="AE17" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="AF17" s="1" t="s">
+      <c r="AF17" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AG17" s="1" t="s">
+      <c r="AG17" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="AH17" s="1">
+      <c r="AH17" s="2">
         <v>9213041520</v>
       </c>
-      <c r="AI17" s="1" t="s">
+      <c r="AI17" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="AJ17" s="1"/>
-      <c r="AK17" s="1" t="s">
+      <c r="AK17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AL17" s="1" t="s">
+      <c r="AL17" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:38">
-      <c r="A18" s="2">
+    <row r="18" s="2" customFormat="1" spans="1:38">
+      <c r="A18" s="6">
         <v>44151.3838310185</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="2">
         <v>10</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="2">
         <v>312</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="7">
         <v>44076</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="7">
         <v>44077</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K18" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="2">
         <v>79313393089</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18" s="2">
         <v>2</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="N18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q18" s="1">
+      <c r="O18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q18" s="2">
         <v>0</v>
       </c>
-      <c r="R18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S18" s="1">
+      <c r="R18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S18" s="2">
         <v>15</v>
       </c>
-      <c r="T18" s="3">
+      <c r="T18" s="7">
         <v>38155</v>
       </c>
-      <c r="U18" s="1">
+      <c r="U18" s="2">
         <v>9</v>
       </c>
-      <c r="V18" s="1" t="s">
+      <c r="V18" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="W18" s="1" t="s">
+      <c r="W18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="X18" s="2">
+      <c r="X18" s="6">
         <v>44117.580775463</v>
       </c>
-      <c r="Y18" s="1" t="s">
+      <c r="Y18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Z18" s="1" t="s">
+      <c r="Z18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AA18" s="1" t="s">
+      <c r="AA18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AB18" s="1">
+      <c r="AB18" s="2">
         <v>20012</v>
       </c>
-      <c r="AC18" s="1" t="s">
+      <c r="AC18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AD18" s="7">
         <v>44117</v>
       </c>
-      <c r="AE18" s="1" t="s">
+      <c r="AE18" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="AF18" s="1" t="s">
+      <c r="AF18" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="AG18" s="1" t="s">
+      <c r="AG18" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="AH18" s="1">
+      <c r="AH18" s="2">
         <v>79213640331</v>
       </c>
-      <c r="AI18" s="1" t="s">
+      <c r="AI18" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="AJ18" s="1"/>
-      <c r="AK18" s="1" t="s">
+      <c r="AK18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AL18" s="1" t="s">
+      <c r="AL18" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="1:38">
-      <c r="A19" s="2">
+    <row r="19" s="2" customFormat="1" spans="1:38">
+      <c r="A19" s="6">
         <v>44151.3838310185</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="2">
         <v>8</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="2">
         <v>312</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="7">
         <v>44076</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="7">
         <v>44077</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="2">
         <v>558</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="K19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19" s="2">
         <v>9214167886</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19" s="2">
         <v>2</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="N19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q19" s="1">
+      <c r="O19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q19" s="2">
         <v>0</v>
       </c>
-      <c r="R19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S19" s="1">
+      <c r="R19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S19" s="2">
         <v>15</v>
       </c>
-      <c r="T19" s="3">
+      <c r="T19" s="7">
         <v>38000</v>
       </c>
-      <c r="U19" s="1">
+      <c r="U19" s="2">
         <v>9</v>
       </c>
-      <c r="V19" s="1" t="s">
+      <c r="V19" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="W19" s="1" t="s">
+      <c r="W19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="X19" s="2">
+      <c r="X19" s="6">
         <v>44117.5791898148</v>
       </c>
-      <c r="Y19" s="1" t="s">
+      <c r="Y19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Z19" s="1" t="s">
+      <c r="Z19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AA19" s="1" t="s">
+      <c r="AA19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AB19" s="1">
+      <c r="AB19" s="2">
         <v>20012</v>
       </c>
-      <c r="AC19" s="1" t="s">
+      <c r="AC19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AD19" s="3">
+      <c r="AD19" s="7">
         <v>44117</v>
       </c>
-      <c r="AE19" s="1" t="s">
+      <c r="AE19" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="AF19" s="1" t="s">
+      <c r="AF19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AG19" s="1" t="s">
+      <c r="AG19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AH19" s="1" t="s">
+      <c r="AH19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AI19" s="1" t="s">
+      <c r="AI19" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="AJ19" s="1"/>
-      <c r="AK19" s="1" t="s">
+      <c r="AK19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AL19" s="1" t="s">
+      <c r="AL19" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:38">
-      <c r="A21" s="2">
+    <row r="20" s="3" customFormat="1"/>
+    <row r="21" s="2" customFormat="1" spans="1:38">
+      <c r="A21" s="6">
         <v>44151.383599537</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <v>2</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="2">
         <v>222</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="7">
         <v>44076</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="7">
         <v>44077</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="2">
         <v>56</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="K21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="L21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21" s="2">
         <v>1</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="N21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q21" s="1">
+      <c r="O21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q21" s="2">
         <v>0</v>
       </c>
-      <c r="R21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S21" s="1">
+      <c r="R21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S21" s="2">
         <v>12</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="7">
         <v>39219</v>
       </c>
-      <c r="U21" s="1">
+      <c r="U21" s="2">
         <v>7</v>
       </c>
-      <c r="V21" s="1" t="s">
+      <c r="V21" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="W21" s="1" t="s">
+      <c r="W21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="X21" s="2">
+      <c r="X21" s="6">
         <v>44117.553912037</v>
       </c>
-      <c r="Y21" s="1" t="s">
+      <c r="Y21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Z21" s="1" t="s">
+      <c r="Z21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AA21" s="1" t="s">
+      <c r="AA21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AB21" s="1">
+      <c r="AB21" s="2">
         <v>20012</v>
       </c>
-      <c r="AC21" s="1" t="s">
+      <c r="AC21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AD21" s="7">
         <v>44117</v>
       </c>
-      <c r="AE21" s="1" t="s">
+      <c r="AE21" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="AF21" s="1" t="s">
+      <c r="AF21" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="AG21" s="1" t="s">
+      <c r="AG21" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AH21" s="1" t="s">
+      <c r="AH21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AI21" s="1" t="s">
+      <c r="AI21" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="AJ21" s="1"/>
-      <c r="AK21" s="1" t="s">
+      <c r="AK21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AL21" s="1" t="s">
+      <c r="AL21" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="1:38">
-      <c r="A22" s="2">
+    <row r="22" s="2" customFormat="1" spans="1:38">
+      <c r="A22" s="6">
         <v>44151.383599537</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <v>3</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="2">
         <v>222</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="7">
         <v>44076</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="7">
         <v>43711</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="2">
         <v>241</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="K22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="L22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" s="2">
         <v>1</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="N22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q22" s="1">
+      <c r="O22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q22" s="2">
         <v>0</v>
       </c>
-      <c r="R22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S22" s="1">
+      <c r="R22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S22" s="2">
         <v>12</v>
       </c>
-      <c r="T22" s="3">
+      <c r="T22" s="7">
         <v>39189</v>
       </c>
-      <c r="U22" s="1">
+      <c r="U22" s="2">
         <v>8</v>
       </c>
-      <c r="V22" s="1" t="s">
+      <c r="V22" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="W22" s="1" t="s">
+      <c r="W22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="X22" s="2">
+      <c r="X22" s="6">
         <v>44117.5690162037</v>
       </c>
-      <c r="Y22" s="1" t="s">
+      <c r="Y22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Z22" s="1" t="s">
+      <c r="Z22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AA22" s="1" t="s">
+      <c r="AA22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AB22" s="1">
+      <c r="AB22" s="2">
         <v>20012</v>
       </c>
-      <c r="AC22" s="1" t="s">
+      <c r="AC22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AD22" s="7">
         <v>44117</v>
       </c>
-      <c r="AE22" s="1" t="s">
+      <c r="AE22" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="AF22" s="1" t="s">
+      <c r="AF22" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AG22" s="1" t="s">
+      <c r="AG22" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="AH22" s="1" t="s">
+      <c r="AH22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AI22" s="1" t="s">
+      <c r="AI22" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="AJ22" s="1"/>
-      <c r="AK22" s="1" t="s">
+      <c r="AK22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AL22" s="1" t="s">
+      <c r="AL22" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" spans="1:38">
-      <c r="A23" s="2">
+    <row r="23" s="2" customFormat="1" spans="1:38">
+      <c r="A23" s="6">
         <v>44151.383599537</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="2">
         <v>4</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="2">
         <v>222</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="7">
         <v>44076</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="7">
         <v>44077</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="2">
         <v>347</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="K23" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="L23" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23" s="2">
         <v>1</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="N23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q23" s="1">
+      <c r="O23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q23" s="2">
         <v>0</v>
       </c>
-      <c r="R23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S23" s="1">
+      <c r="R23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S23" s="2">
         <v>11</v>
       </c>
-      <c r="T23" s="3">
+      <c r="T23" s="7">
         <v>39472</v>
       </c>
-      <c r="U23" s="1">
-        <v>6</v>
-      </c>
-      <c r="V23" s="1" t="s">
+      <c r="U23" s="2">
+        <v>6</v>
+      </c>
+      <c r="V23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="W23" s="1" t="s">
+      <c r="W23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="X23" s="2">
+      <c r="X23" s="6">
         <v>44117.5696643519</v>
       </c>
-      <c r="Y23" s="1" t="s">
+      <c r="Y23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Z23" s="1" t="s">
+      <c r="Z23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AA23" s="1" t="s">
+      <c r="AA23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AB23" s="1">
+      <c r="AB23" s="2">
         <v>20012</v>
       </c>
-      <c r="AC23" s="1" t="s">
+      <c r="AC23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AD23" s="7">
         <v>44117</v>
       </c>
-      <c r="AE23" s="1" t="s">
+      <c r="AE23" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="AF23" s="1" t="s">
+      <c r="AF23" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="AG23" s="1" t="s">
+      <c r="AG23" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="AH23" s="1" t="s">
+      <c r="AH23" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AI23" s="1" t="s">
+      <c r="AI23" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="AJ23" s="1"/>
-      <c r="AK23" s="1" t="s">
+      <c r="AK23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AL23" s="1" t="s">
+      <c r="AL23" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:38">
-      <c r="A24" s="2">
+    <row r="24" s="2" customFormat="1" spans="1:38">
+      <c r="A24" s="6">
         <v>44151.383599537</v>
       </c>
-      <c r="B24" s="1">
-        <v>6</v>
-      </c>
-      <c r="C24" s="1">
+      <c r="B24" s="2">
+        <v>6</v>
+      </c>
+      <c r="C24" s="2">
         <v>222</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="7">
         <v>44076</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="7">
         <v>44077</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="2">
         <v>61</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="K24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="L24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M24" s="2">
         <v>1</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="N24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q24" s="1">
+      <c r="O24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q24" s="2">
         <v>0</v>
       </c>
-      <c r="R24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S24" s="1">
+      <c r="R24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S24" s="2">
         <v>12</v>
       </c>
-      <c r="T24" s="3">
+      <c r="T24" s="7">
         <v>39007</v>
       </c>
-      <c r="U24" s="1">
+      <c r="U24" s="2">
         <v>8</v>
       </c>
-      <c r="V24" s="1" t="s">
+      <c r="V24" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="W24" s="1" t="s">
+      <c r="W24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="X24" s="2">
+      <c r="X24" s="6">
         <v>44117.5707060185</v>
       </c>
-      <c r="Y24" s="1" t="s">
+      <c r="Y24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Z24" s="1" t="s">
+      <c r="Z24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AA24" s="1" t="s">
+      <c r="AA24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AB24" s="1">
+      <c r="AB24" s="2">
         <v>20012</v>
       </c>
-      <c r="AC24" s="1" t="s">
+      <c r="AC24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AD24" s="7">
         <v>44117</v>
       </c>
-      <c r="AE24" s="1" t="s">
+      <c r="AE24" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="AF24" s="1" t="s">
+      <c r="AF24" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="AG24" s="1" t="s">
+      <c r="AG24" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH24" s="1" t="s">
+      <c r="AH24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AI24" s="1" t="s">
+      <c r="AI24" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="AJ24" s="1"/>
-      <c r="AK24" s="1" t="s">
+      <c r="AK24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AL24" s="1" t="s">
+      <c r="AL24" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="1:38">
-      <c r="A25" s="2">
+    <row r="25" s="2" customFormat="1" spans="1:38">
+      <c r="A25" s="6">
         <v>44151.383599537</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="2">
         <v>8</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="2">
         <v>222</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="7">
         <v>44076</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="7">
         <v>44077</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="2">
         <v>10</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="K25" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="L25" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25" s="2">
         <v>1</v>
       </c>
-      <c r="N25" s="1" t="s">
+      <c r="N25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q25" s="1">
+      <c r="O25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q25" s="2">
         <v>0</v>
       </c>
-      <c r="R25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S25" s="1">
+      <c r="R25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S25" s="2">
         <v>12</v>
       </c>
-      <c r="T25" s="3">
+      <c r="T25" s="7">
         <v>39093</v>
       </c>
-      <c r="U25" s="1">
+      <c r="U25" s="2">
         <v>7</v>
       </c>
-      <c r="V25" s="1" t="s">
+      <c r="V25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="W25" s="1" t="s">
+      <c r="W25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="X25" s="2">
+      <c r="X25" s="6">
         <v>44117.5716435185</v>
       </c>
-      <c r="Y25" s="1" t="s">
+      <c r="Y25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Z25" s="1" t="s">
+      <c r="Z25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AA25" s="1" t="s">
+      <c r="AA25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AB25" s="1">
+      <c r="AB25" s="2">
         <v>20012</v>
       </c>
-      <c r="AC25" s="1" t="s">
+      <c r="AC25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AD25" s="3">
+      <c r="AD25" s="7">
         <v>44117</v>
       </c>
-      <c r="AE25" s="1" t="s">
+      <c r="AE25" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="AF25" s="1" t="s">
+      <c r="AF25" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="AG25" s="1" t="s">
+      <c r="AG25" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="AH25" s="1" t="s">
+      <c r="AH25" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AI25" s="1" t="s">
+      <c r="AI25" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="AJ25" s="1"/>
-      <c r="AK25" s="1" t="s">
+      <c r="AK25" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AL25" s="1" t="s">
+      <c r="AL25" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="1:38">
-      <c r="A26" s="2">
+    <row r="26" s="2" customFormat="1" spans="1:38">
+      <c r="A26" s="6">
         <v>44151.383599537</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="2">
         <v>9</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="2">
         <v>222</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="7">
         <v>44076</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="7">
         <v>44077</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I26" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="2">
         <v>52</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="K26" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="L26" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M26" s="2">
         <v>1</v>
       </c>
-      <c r="N26" s="1" t="s">
+      <c r="N26" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q26" s="1">
+      <c r="O26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q26" s="2">
         <v>0</v>
       </c>
-      <c r="R26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S26" s="1">
+      <c r="R26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S26" s="2">
         <v>14</v>
       </c>
-      <c r="T26" s="3">
+      <c r="T26" s="7">
         <v>38299</v>
       </c>
-      <c r="U26" s="1">
+      <c r="U26" s="2">
         <v>9</v>
       </c>
-      <c r="V26" s="1" t="s">
+      <c r="V26" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="W26" s="1" t="s">
+      <c r="W26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="X26" s="2">
+      <c r="X26" s="6">
         <v>44117.5721180556</v>
       </c>
-      <c r="Y26" s="1" t="s">
+      <c r="Y26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Z26" s="1" t="s">
+      <c r="Z26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AA26" s="1" t="s">
+      <c r="AA26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AB26" s="1">
+      <c r="AB26" s="2">
         <v>20012</v>
       </c>
-      <c r="AC26" s="1" t="s">
+      <c r="AC26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AD26" s="7">
         <v>44117</v>
       </c>
-      <c r="AE26" s="1" t="s">
+      <c r="AE26" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="AF26" s="1" t="s">
+      <c r="AF26" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="AG26" s="1" t="s">
+      <c r="AG26" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="AH26" s="1" t="s">
+      <c r="AH26" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AI26" s="1" t="s">
+      <c r="AI26" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="AJ26" s="1"/>
-      <c r="AK26" s="1" t="s">
+      <c r="AK26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AL26" s="1" t="s">
+      <c r="AL26" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" spans="1:38">
-      <c r="A27" s="2">
+    <row r="27" s="2" customFormat="1" spans="1:38">
+      <c r="A27" s="6">
         <v>44151.383599537</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="2">
         <v>12</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="2">
         <v>222</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="7">
         <v>44076</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="7">
         <v>43711</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H27" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I27" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="2">
         <v>57</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="K27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="L27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M27" s="2">
         <v>1</v>
       </c>
-      <c r="N27" s="1" t="s">
+      <c r="N27" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q27" s="1">
+      <c r="O27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q27" s="2">
         <v>0</v>
       </c>
-      <c r="R27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S27" s="1">
+      <c r="R27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S27" s="2">
         <v>14</v>
       </c>
-      <c r="T27" s="3">
+      <c r="T27" s="7">
         <v>38388</v>
       </c>
-      <c r="U27" s="1">
+      <c r="U27" s="2">
         <v>8</v>
       </c>
-      <c r="V27" s="1" t="s">
+      <c r="V27" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="W27" s="1" t="s">
+      <c r="W27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="X27" s="2">
+      <c r="X27" s="6">
         <v>44117.5738541667</v>
       </c>
-      <c r="Y27" s="1" t="s">
+      <c r="Y27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Z27" s="1" t="s">
+      <c r="Z27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AA27" s="1" t="s">
+      <c r="AA27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AB27" s="1">
+      <c r="AB27" s="2">
         <v>20012</v>
       </c>
-      <c r="AC27" s="1" t="s">
+      <c r="AC27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AD27" s="7">
         <v>44117</v>
       </c>
-      <c r="AE27" s="1" t="s">
+      <c r="AE27" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="AF27" s="1" t="s">
+      <c r="AF27" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="AG27" s="1" t="s">
+      <c r="AG27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AH27" s="1" t="s">
+      <c r="AH27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AI27" s="1" t="s">
+      <c r="AI27" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="AJ27" s="1"/>
-      <c r="AK27" s="1" t="s">
+      <c r="AK27" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AL27" s="1" t="s">
+      <c r="AL27" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" spans="1:40">
-      <c r="A28" s="2">
+    <row r="28" s="2" customFormat="1" spans="1:40">
+      <c r="A28" s="6">
         <v>44151.383599537</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="2">
         <v>13</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="2">
         <v>222</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="7">
         <v>43710</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="7">
         <v>44090</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I28" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="2">
         <v>582</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="K28" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="L28" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M28" s="2">
         <v>1</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="N28" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q28" s="1">
+      <c r="O28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q28" s="2">
         <v>0</v>
       </c>
-      <c r="R28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S28" s="1">
+      <c r="R28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S28" s="2">
         <v>11</v>
       </c>
-      <c r="T28" s="3">
+      <c r="T28" s="7">
         <v>39819</v>
       </c>
-      <c r="U28" s="1">
-        <v>6</v>
-      </c>
-      <c r="V28" s="1" t="s">
+      <c r="U28" s="2">
+        <v>6</v>
+      </c>
+      <c r="V28" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="W28" s="1" t="s">
+      <c r="W28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="X28" s="2">
+      <c r="X28" s="6">
         <v>44117.6012962963</v>
       </c>
-      <c r="Y28" s="1" t="s">
+      <c r="Y28" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Z28" s="1" t="s">
+      <c r="Z28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AA28" s="1" t="s">
+      <c r="AA28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AB28" s="1">
+      <c r="AB28" s="2">
         <v>20012</v>
       </c>
-      <c r="AC28" s="1" t="s">
+      <c r="AC28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AD28" s="3">
+      <c r="AD28" s="7">
         <v>44117</v>
       </c>
-      <c r="AE28" s="1" t="s">
+      <c r="AE28" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="AF28" s="1" t="s">
+      <c r="AF28" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="AG28" s="1" t="s">
+      <c r="AG28" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="AH28" s="1" t="s">
+      <c r="AH28" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="AI28" s="1" t="s">
+      <c r="AI28" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="AJ28" s="1" t="s">
+      <c r="AJ28" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="AK28" s="1">
+      <c r="AK28" s="2">
         <v>792</v>
       </c>
-      <c r="AL28" s="1"/>
-      <c r="AM28" s="1" t="s">
+      <c r="AM28" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AN28" s="1" t="s">
+      <c r="AN28" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6794,10 +6803,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AR25"/>
+  <dimension ref="A1:AR26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T1" sqref="G1:I18 T1:T18"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AA6" sqref="AA6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -6930,7 +6939,7 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:40">
-      <c r="A2" s="2">
+      <c r="A2" s="4">
         <v>44151.3833564815</v>
       </c>
       <c r="B2" s="1">
@@ -6939,10 +6948,10 @@
       <c r="C2" s="1">
         <v>145</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="5">
         <v>43710</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="5">
         <v>43722</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -6987,7 +6996,7 @@
       <c r="S2" s="1">
         <v>11</v>
       </c>
-      <c r="T2" s="3">
+      <c r="T2" s="5">
         <v>40104</v>
       </c>
       <c r="U2" s="1">
@@ -6999,7 +7008,7 @@
       <c r="W2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2" s="4">
         <v>44117.6053935185</v>
       </c>
       <c r="Y2" s="1" t="s">
@@ -7017,7 +7026,7 @@
       <c r="AC2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AD2" s="3">
+      <c r="AD2" s="5">
         <v>44117</v>
       </c>
       <c r="AE2" s="1" t="s">
@@ -7041,7 +7050,6 @@
       <c r="AK2" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="AL2" s="1"/>
       <c r="AM2" s="1" t="s">
         <v>18</v>
       </c>
@@ -7050,7 +7058,7 @@
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:40">
-      <c r="A3" s="2">
+      <c r="A3" s="4">
         <v>44151.3833564815</v>
       </c>
       <c r="B3" s="1">
@@ -7059,10 +7067,10 @@
       <c r="C3" s="1">
         <v>145</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="5">
         <v>43710</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="5">
         <v>43722</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -7107,7 +7115,7 @@
       <c r="S3" s="1">
         <v>12</v>
       </c>
-      <c r="T3" s="3">
+      <c r="T3" s="5">
         <v>39657</v>
       </c>
       <c r="U3" s="1">
@@ -7119,7 +7127,7 @@
       <c r="W3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="X3" s="2">
+      <c r="X3" s="4">
         <v>44117.6069907407</v>
       </c>
       <c r="Y3" s="1" t="s">
@@ -7137,7 +7145,7 @@
       <c r="AC3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AD3" s="3">
+      <c r="AD3" s="5">
         <v>44117</v>
       </c>
       <c r="AE3" s="1" t="s">
@@ -7161,7 +7169,6 @@
       <c r="AK3" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="AL3" s="1"/>
       <c r="AM3" s="1" t="s">
         <v>18</v>
       </c>
@@ -7170,7 +7177,7 @@
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:38">
-      <c r="A4" s="2">
+      <c r="A4" s="4">
         <v>44151.3833564815</v>
       </c>
       <c r="B4" s="1">
@@ -7179,10 +7186,10 @@
       <c r="C4" s="1">
         <v>145</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="5">
         <v>44076</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="5">
         <v>43722</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -7227,7 +7234,7 @@
       <c r="S4" s="1">
         <v>11</v>
       </c>
-      <c r="T4" s="3">
+      <c r="T4" s="5">
         <v>39892</v>
       </c>
       <c r="U4" s="1">
@@ -7239,7 +7246,7 @@
       <c r="W4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="X4" s="2">
+      <c r="X4" s="4">
         <v>44117.6085185185</v>
       </c>
       <c r="Y4" s="1" t="s">
@@ -7257,7 +7264,7 @@
       <c r="AC4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AD4" s="3">
+      <c r="AD4" s="5">
         <v>44117</v>
       </c>
       <c r="AE4" s="1" t="s">
@@ -7275,7 +7282,6 @@
       <c r="AI4" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="AJ4" s="1"/>
       <c r="AK4" s="1" t="s">
         <v>18</v>
       </c>
@@ -7284,7 +7290,7 @@
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:40">
-      <c r="A5" s="2">
+      <c r="A5" s="4">
         <v>44151.3833564815</v>
       </c>
       <c r="B5" s="1">
@@ -7293,10 +7299,10 @@
       <c r="C5" s="1">
         <v>145</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="5">
         <v>44076</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="5">
         <v>43722</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -7341,7 +7347,7 @@
       <c r="S5" s="1">
         <v>12</v>
       </c>
-      <c r="T5" s="3">
+      <c r="T5" s="5">
         <v>39331</v>
       </c>
       <c r="U5" s="1">
@@ -7353,7 +7359,7 @@
       <c r="W5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="X5" s="2">
+      <c r="X5" s="4">
         <v>44117.6099074074</v>
       </c>
       <c r="Y5" s="1" t="s">
@@ -7371,7 +7377,7 @@
       <c r="AC5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AD5" s="3">
+      <c r="AD5" s="5">
         <v>44117</v>
       </c>
       <c r="AE5" s="1" t="s">
@@ -7395,7 +7401,6 @@
       <c r="AK5" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="AL5" s="1"/>
       <c r="AM5" s="1" t="s">
         <v>18</v>
       </c>
@@ -7404,7 +7409,7 @@
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:38">
-      <c r="A6" s="2">
+      <c r="A6" s="4">
         <v>44151.3833564815</v>
       </c>
       <c r="B6" s="1">
@@ -7413,10 +7418,10 @@
       <c r="C6" s="1">
         <v>145</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="5">
         <v>44076</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="5">
         <v>44088</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -7461,7 +7466,7 @@
       <c r="S6" s="1">
         <v>14</v>
       </c>
-      <c r="T6" s="3">
+      <c r="T6" s="5">
         <v>38801</v>
       </c>
       <c r="U6" s="1">
@@ -7473,7 +7478,7 @@
       <c r="W6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="X6" s="2">
+      <c r="X6" s="4">
         <v>44117.6161458333</v>
       </c>
       <c r="Y6" s="1" t="s">
@@ -7491,7 +7496,7 @@
       <c r="AC6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AD6" s="3">
+      <c r="AD6" s="5">
         <v>44117</v>
       </c>
       <c r="AE6" s="1" t="s">
@@ -7509,7 +7514,6 @@
       <c r="AI6" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="AJ6" s="1"/>
       <c r="AK6" s="1" t="s">
         <v>18</v>
       </c>
@@ -7518,7 +7522,7 @@
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:40">
-      <c r="A7" s="2">
+      <c r="A7" s="4">
         <v>44151.3833564815</v>
       </c>
       <c r="B7" s="1">
@@ -7527,10 +7531,10 @@
       <c r="C7" s="1">
         <v>145</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="5">
         <v>44076</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="5">
         <v>44088</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -7575,7 +7579,7 @@
       <c r="S7" s="1">
         <v>12</v>
       </c>
-      <c r="T7" s="3">
+      <c r="T7" s="5">
         <v>39485</v>
       </c>
       <c r="U7" s="1">
@@ -7587,7 +7591,7 @@
       <c r="W7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="X7" s="2">
+      <c r="X7" s="4">
         <v>44117.619224537</v>
       </c>
       <c r="Y7" s="1" t="s">
@@ -7605,7 +7609,7 @@
       <c r="AC7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AD7" s="3">
+      <c r="AD7" s="5">
         <v>44117</v>
       </c>
       <c r="AE7" s="1" t="s">
@@ -7629,7 +7633,6 @@
       <c r="AK7" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="AL7" s="1"/>
       <c r="AM7" s="1" t="s">
         <v>18</v>
       </c>
@@ -7638,7 +7641,7 @@
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:44">
-      <c r="A8" s="2">
+      <c r="A8" s="4">
         <v>44151.3833564815</v>
       </c>
       <c r="B8" s="1">
@@ -7647,10 +7650,10 @@
       <c r="C8" s="1">
         <v>145</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="5">
         <v>44076</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="5">
         <v>44088</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -7695,7 +7698,7 @@
       <c r="S8" s="1">
         <v>11</v>
       </c>
-      <c r="T8" s="3">
+      <c r="T8" s="5">
         <v>40195</v>
       </c>
       <c r="U8" s="1">
@@ -7707,7 +7710,7 @@
       <c r="W8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="X8" s="2">
+      <c r="X8" s="4">
         <v>44117.6242592593</v>
       </c>
       <c r="Y8" s="1" t="s">
@@ -7725,7 +7728,7 @@
       <c r="AC8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AD8" s="5">
         <v>44117</v>
       </c>
       <c r="AE8" s="1" t="s">
@@ -7761,7 +7764,6 @@
       <c r="AO8" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="AP8" s="1"/>
       <c r="AQ8" s="1" t="s">
         <v>18</v>
       </c>
@@ -7770,7 +7772,7 @@
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:42">
-      <c r="A9" s="2">
+      <c r="A9" s="4">
         <v>44151.3833564815</v>
       </c>
       <c r="B9" s="1">
@@ -7779,10 +7781,10 @@
       <c r="C9" s="1">
         <v>145</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="5">
         <v>44076</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="5">
         <v>44088</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -7827,7 +7829,7 @@
       <c r="S9" s="1">
         <v>13</v>
       </c>
-      <c r="T9" s="3">
+      <c r="T9" s="5">
         <v>39166</v>
       </c>
       <c r="U9" s="1">
@@ -7839,7 +7841,7 @@
       <c r="W9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="X9" s="2">
+      <c r="X9" s="4">
         <v>44117.6257291667</v>
       </c>
       <c r="Y9" s="1" t="s">
@@ -7857,7 +7859,7 @@
       <c r="AC9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AD9" s="5">
         <v>44117</v>
       </c>
       <c r="AE9" s="1" t="s">
@@ -7887,7 +7889,6 @@
       <c r="AM9" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="AN9" s="1"/>
       <c r="AO9" s="1" t="s">
         <v>18</v>
       </c>
@@ -7896,7 +7897,7 @@
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:38">
-      <c r="A10" s="2">
+      <c r="A10" s="4">
         <v>44151.3833564815</v>
       </c>
       <c r="B10" s="1">
@@ -7905,10 +7906,10 @@
       <c r="C10" s="1">
         <v>145</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="5">
         <v>44076</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="5">
         <v>44088</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -7953,7 +7954,7 @@
       <c r="S10" s="1">
         <v>11</v>
       </c>
-      <c r="T10" s="3">
+      <c r="T10" s="5">
         <v>40070</v>
       </c>
       <c r="U10" s="1">
@@ -7965,7 +7966,7 @@
       <c r="W10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="X10" s="2">
+      <c r="X10" s="4">
         <v>44117.6270023148</v>
       </c>
       <c r="Y10" s="1" t="s">
@@ -7983,7 +7984,7 @@
       <c r="AC10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AD10" s="5">
         <v>44117</v>
       </c>
       <c r="AE10" s="1" t="s">
@@ -8001,7 +8002,6 @@
       <c r="AI10" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="AJ10" s="1"/>
       <c r="AK10" s="1" t="s">
         <v>18</v>
       </c>
@@ -8010,7 +8010,7 @@
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:41">
-      <c r="A11" s="2">
+      <c r="A11" s="4">
         <v>44151.3833564815</v>
       </c>
       <c r="B11" s="1">
@@ -8019,10 +8019,10 @@
       <c r="C11" s="1">
         <v>145</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="5">
         <v>44076</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="5">
         <v>44088</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -8067,7 +8067,7 @@
       <c r="S11" s="1">
         <v>12</v>
       </c>
-      <c r="T11" s="3">
+      <c r="T11" s="5">
         <v>39554</v>
       </c>
       <c r="U11" s="1">
@@ -8079,7 +8079,7 @@
       <c r="W11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="X11" s="2">
+      <c r="X11" s="4">
         <v>44117.6287152778</v>
       </c>
       <c r="Y11" s="1" t="s">
@@ -8097,7 +8097,7 @@
       <c r="AC11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AD11" s="3">
+      <c r="AD11" s="5">
         <v>44117</v>
       </c>
       <c r="AE11" s="1" t="s">
@@ -8124,7 +8124,6 @@
       <c r="AL11" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="AM11" s="1"/>
       <c r="AN11" s="1" t="s">
         <v>18</v>
       </c>
@@ -8133,7 +8132,7 @@
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:39">
-      <c r="A12" s="2">
+      <c r="A12" s="4">
         <v>44151.3833564815</v>
       </c>
       <c r="B12" s="1">
@@ -8142,10 +8141,10 @@
       <c r="C12" s="1">
         <v>145</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="5">
         <v>44076</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="5">
         <v>44088</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -8190,7 +8189,7 @@
       <c r="S12" s="1">
         <v>15</v>
       </c>
-      <c r="T12" s="3">
+      <c r="T12" s="5">
         <v>38434</v>
       </c>
       <c r="U12" s="1">
@@ -8202,7 +8201,7 @@
       <c r="W12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="X12" s="2">
+      <c r="X12" s="4">
         <v>44117.6330902778</v>
       </c>
       <c r="Y12" s="1" t="s">
@@ -8220,7 +8219,7 @@
       <c r="AC12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AD12" s="5">
         <v>44117</v>
       </c>
       <c r="AE12" s="1" t="s">
@@ -8241,7 +8240,6 @@
       <c r="AJ12" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="AK12" s="1"/>
       <c r="AL12" s="1" t="s">
         <v>18</v>
       </c>
@@ -8250,7 +8248,7 @@
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:38">
-      <c r="A13" s="2">
+      <c r="A13" s="4">
         <v>44151.3833564815</v>
       </c>
       <c r="B13" s="1">
@@ -8259,10 +8257,10 @@
       <c r="C13" s="1">
         <v>145</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="5">
         <v>44076</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="5">
         <v>44088</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -8307,7 +8305,7 @@
       <c r="S13" s="1">
         <v>16</v>
       </c>
-      <c r="T13" s="3">
+      <c r="T13" s="5">
         <v>38094</v>
       </c>
       <c r="U13" s="1">
@@ -8319,7 +8317,7 @@
       <c r="W13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="X13" s="2">
+      <c r="X13" s="4">
         <v>44117.6345833333</v>
       </c>
       <c r="Y13" s="1" t="s">
@@ -8337,7 +8335,7 @@
       <c r="AC13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AD13" s="3">
+      <c r="AD13" s="5">
         <v>44117</v>
       </c>
       <c r="AE13" s="1" t="s">
@@ -8355,7 +8353,6 @@
       <c r="AI13" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="AJ13" s="1"/>
       <c r="AK13" s="1" t="s">
         <v>18</v>
       </c>
@@ -8364,7 +8361,7 @@
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:38">
-      <c r="A14" s="2">
+      <c r="A14" s="4">
         <v>44151.3833564815</v>
       </c>
       <c r="B14" s="1">
@@ -8373,10 +8370,10 @@
       <c r="C14" s="1">
         <v>145</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="5">
         <v>44076</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="5">
         <v>44088</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -8421,7 +8418,7 @@
       <c r="S14" s="1">
         <v>11</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="5">
         <v>39725</v>
       </c>
       <c r="U14" s="1">
@@ -8433,7 +8430,7 @@
       <c r="W14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="2">
+      <c r="X14" s="4">
         <v>44117.6427314815</v>
       </c>
       <c r="Y14" s="1" t="s">
@@ -8451,7 +8448,7 @@
       <c r="AC14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AD14" s="5">
         <v>44117</v>
       </c>
       <c r="AE14" s="1" t="s">
@@ -8469,7 +8466,6 @@
       <c r="AI14" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="AJ14" s="1"/>
       <c r="AK14" s="1" t="s">
         <v>18</v>
       </c>
@@ -8478,7 +8474,7 @@
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:38">
-      <c r="A15" s="2">
+      <c r="A15" s="4">
         <v>44151.3833564815</v>
       </c>
       <c r="B15" s="1">
@@ -8487,10 +8483,10 @@
       <c r="C15" s="1">
         <v>145</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="5">
         <v>44076</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="5">
         <v>44088</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -8535,7 +8531,7 @@
       <c r="S15" s="1">
         <v>12</v>
       </c>
-      <c r="T15" s="3">
+      <c r="T15" s="5">
         <v>39622</v>
       </c>
       <c r="U15" s="1">
@@ -8547,7 +8543,7 @@
       <c r="W15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="X15" s="2">
+      <c r="X15" s="4">
         <v>44117.6449884259</v>
       </c>
       <c r="Y15" s="1" t="s">
@@ -8565,7 +8561,7 @@
       <c r="AC15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AD15" s="5">
         <v>44117</v>
       </c>
       <c r="AE15" s="1" t="s">
@@ -8583,7 +8579,6 @@
       <c r="AI15" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="AJ15" s="1"/>
       <c r="AK15" s="1" t="s">
         <v>18</v>
       </c>
@@ -8592,7 +8587,7 @@
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:38">
-      <c r="A16" s="2">
+      <c r="A16" s="4">
         <v>44151.3833564815</v>
       </c>
       <c r="B16" s="1">
@@ -8601,10 +8596,10 @@
       <c r="C16" s="1">
         <v>145</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="5">
         <v>44076</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="5">
         <v>44088</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -8649,7 +8644,7 @@
       <c r="S16" s="1">
         <v>16</v>
       </c>
-      <c r="T16" s="3">
+      <c r="T16" s="5">
         <v>38070</v>
       </c>
       <c r="U16" s="1">
@@ -8661,7 +8656,7 @@
       <c r="W16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="X16" s="2">
+      <c r="X16" s="4">
         <v>44117.647025463</v>
       </c>
       <c r="Y16" s="1" t="s">
@@ -8679,7 +8674,7 @@
       <c r="AC16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AD16" s="3">
+      <c r="AD16" s="5">
         <v>44117</v>
       </c>
       <c r="AE16" s="1" t="s">
@@ -8697,7 +8692,6 @@
       <c r="AI16" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="AJ16" s="1"/>
       <c r="AK16" s="1" t="s">
         <v>18</v>
       </c>
@@ -8706,7 +8700,7 @@
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="15.15" spans="1:38">
-      <c r="A17" s="2">
+      <c r="A17" s="4">
         <v>44151.3833564815</v>
       </c>
       <c r="B17" s="1">
@@ -8715,10 +8709,10 @@
       <c r="C17" s="1">
         <v>145</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="5">
         <v>44076</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="5">
         <v>44088</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -8763,7 +8757,7 @@
       <c r="S17" s="1">
         <v>15</v>
       </c>
-      <c r="T17" s="3">
+      <c r="T17" s="5">
         <v>38413</v>
       </c>
       <c r="U17" s="1">
@@ -8775,7 +8769,7 @@
       <c r="W17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="X17" s="2">
+      <c r="X17" s="4">
         <v>44117.6490046296</v>
       </c>
       <c r="Y17" s="1" t="s">
@@ -8793,7 +8787,7 @@
       <c r="AC17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AD17" s="5">
         <v>44117</v>
       </c>
       <c r="AE17" s="1" t="s">
@@ -8811,7 +8805,6 @@
       <c r="AI17" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="AJ17" s="1"/>
       <c r="AK17" s="1" t="s">
         <v>18</v>
       </c>
@@ -8820,7 +8813,7 @@
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="15.15" spans="1:39">
-      <c r="A18" s="2">
+      <c r="A18" s="4">
         <v>44151.3833564815</v>
       </c>
       <c r="B18" s="1">
@@ -8829,10 +8822,10 @@
       <c r="C18" s="1">
         <v>145</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="5">
         <v>44076</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="5">
         <v>44088</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -8844,7 +8837,7 @@
       <c r="H18" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="8" t="s">
         <v>429</v>
       </c>
       <c r="J18" s="1" t="s">
@@ -8877,7 +8870,7 @@
       <c r="S18" s="1">
         <v>12</v>
       </c>
-      <c r="T18" s="3">
+      <c r="T18" s="5">
         <v>39606</v>
       </c>
       <c r="U18" s="1">
@@ -8889,7 +8882,7 @@
       <c r="W18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="X18" s="2">
+      <c r="X18" s="4">
         <v>44117.6361805556</v>
       </c>
       <c r="Y18" s="1" t="s">
@@ -8907,7 +8900,7 @@
       <c r="AC18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AD18" s="5">
         <v>44117</v>
       </c>
       <c r="AE18" s="1" t="s">
@@ -8928,7 +8921,6 @@
       <c r="AJ18" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="AK18" s="1"/>
       <c r="AL18" s="1" t="s">
         <v>18</v>
       </c>
@@ -8936,360 +8928,358 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" spans="1:38">
-      <c r="A23" s="2">
+    <row r="23" s="2" customFormat="1" spans="1:38">
+      <c r="A23" s="6">
         <v>44151.3833564815</v>
       </c>
-      <c r="B23" s="1">
-        <v>6</v>
-      </c>
-      <c r="C23" s="1">
+      <c r="B23" s="2">
+        <v>6</v>
+      </c>
+      <c r="C23" s="2">
         <v>145</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="7">
         <v>44076</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="7">
         <v>44088</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="2">
         <v>166</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="K23" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23" s="2">
         <v>89062470003</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23" s="2">
         <v>1</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="N23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q23" s="1">
+      <c r="O23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q23" s="2">
         <v>0</v>
       </c>
-      <c r="R23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S23" s="1">
+      <c r="R23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S23" s="2">
         <v>15</v>
       </c>
-      <c r="T23" s="3">
+      <c r="T23" s="7">
         <v>38478</v>
       </c>
-      <c r="U23" s="1">
+      <c r="U23" s="2">
         <v>9</v>
       </c>
-      <c r="V23" s="1" t="s">
+      <c r="V23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="W23" s="1" t="s">
+      <c r="W23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="X23" s="2">
+      <c r="X23" s="6">
         <v>44117.6175810185</v>
       </c>
-      <c r="Y23" s="1" t="s">
+      <c r="Y23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Z23" s="1" t="s">
+      <c r="Z23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AA23" s="1" t="s">
+      <c r="AA23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AB23" s="1">
+      <c r="AB23" s="2">
         <v>20012</v>
       </c>
-      <c r="AC23" s="1" t="s">
+      <c r="AC23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AD23" s="7">
         <v>44117</v>
       </c>
-      <c r="AE23" s="1" t="s">
+      <c r="AE23" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="AF23" s="1" t="s">
+      <c r="AF23" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="AG23" s="1" t="s">
+      <c r="AG23" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="AH23" s="1" t="s">
+      <c r="AH23" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="AI23" s="1" t="s">
+      <c r="AI23" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="AJ23" s="1"/>
-      <c r="AK23" s="1" t="s">
+      <c r="AK23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AL23" s="1" t="s">
+      <c r="AL23" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:42">
-      <c r="A24" s="2">
+    <row r="24" s="2" customFormat="1" spans="1:42">
+      <c r="A24" s="6">
         <v>44151.3833564815</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="2">
         <v>12</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="2">
         <v>145</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="7">
         <v>44076</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="7">
         <v>44088</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J24" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="K24" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="L24" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M24" s="2">
         <v>1</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="N24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q24" s="1">
+      <c r="O24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q24" s="2">
         <v>0</v>
       </c>
-      <c r="R24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S24" s="1">
+      <c r="R24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S24" s="2">
         <v>11</v>
       </c>
-      <c r="T24" s="3">
+      <c r="T24" s="7">
         <v>39737</v>
       </c>
-      <c r="U24" s="1">
-        <v>6</v>
-      </c>
-      <c r="V24" s="1" t="s">
+      <c r="U24" s="2">
+        <v>6</v>
+      </c>
+      <c r="V24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="W24" s="1" t="s">
+      <c r="W24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="X24" s="2">
+      <c r="X24" s="6">
         <v>44117.6315393519</v>
       </c>
-      <c r="Y24" s="1" t="s">
+      <c r="Y24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Z24" s="1" t="s">
+      <c r="Z24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AA24" s="1" t="s">
+      <c r="AA24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AB24" s="1">
+      <c r="AB24" s="2">
         <v>20012</v>
       </c>
-      <c r="AC24" s="1" t="s">
+      <c r="AC24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AD24" s="7">
         <v>44117</v>
       </c>
-      <c r="AE24" s="1" t="s">
+      <c r="AE24" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="AF24" s="1" t="s">
+      <c r="AF24" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AG24" s="1" t="s">
+      <c r="AG24" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AH24" s="1" t="s">
+      <c r="AH24" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="AI24" s="1" t="s">
+      <c r="AI24" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="AJ24" s="1" t="s">
+      <c r="AJ24" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="AK24" s="1" t="s">
+      <c r="AK24" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="AL24" s="1" t="s">
+      <c r="AL24" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="AM24" s="1" t="s">
+      <c r="AM24" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="AN24" s="1"/>
-      <c r="AO24" s="1" t="s">
+      <c r="AO24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AP24" s="1" t="s">
+      <c r="AP24" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="1:38">
-      <c r="A25" s="2">
+    <row r="25" s="2" customFormat="1" spans="1:38">
+      <c r="A25" s="6">
         <v>44151.3833564815</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="2">
         <v>20</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="2">
         <v>145</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="7">
         <v>44076</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="7">
         <v>44088</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="2">
         <v>555</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="K25" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L25" s="2">
         <v>9119926836</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25" s="2">
         <v>1</v>
       </c>
-      <c r="N25" s="1" t="s">
+      <c r="N25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q25" s="1">
+      <c r="O25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q25" s="2">
         <v>0</v>
       </c>
-      <c r="R25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S25" s="1">
+      <c r="R25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S25" s="2">
         <v>12</v>
       </c>
-      <c r="T25" s="3">
+      <c r="T25" s="7">
         <v>39630</v>
       </c>
-      <c r="U25" s="1">
-        <v>6</v>
-      </c>
-      <c r="V25" s="1" t="s">
+      <c r="U25" s="2">
+        <v>6</v>
+      </c>
+      <c r="V25" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="W25" s="1" t="s">
+      <c r="W25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="X25" s="2">
+      <c r="X25" s="6">
         <v>44117.6510763889</v>
       </c>
-      <c r="Y25" s="1" t="s">
+      <c r="Y25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Z25" s="1" t="s">
+      <c r="Z25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AA25" s="1" t="s">
+      <c r="AA25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AB25" s="1">
+      <c r="AB25" s="2">
         <v>20012</v>
       </c>
-      <c r="AC25" s="1" t="s">
+      <c r="AC25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AD25" s="3">
+      <c r="AD25" s="7">
         <v>44117</v>
       </c>
-      <c r="AE25" s="1" t="s">
+      <c r="AE25" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="AF25" s="1" t="s">
+      <c r="AF25" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="AG25" s="1" t="s">
+      <c r="AG25" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AH25" s="1" t="s">
+      <c r="AH25" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AI25" s="1" t="s">
+      <c r="AI25" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="AJ25" s="1"/>
-      <c r="AK25" s="1" t="s">
+      <c r="AK25" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AL25" s="1" t="s">
+      <c r="AL25" s="2" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="26" s="3" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -9302,7 +9292,45 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
